--- a/res/static/actioninfo.xlsx
+++ b/res/static/actioninfo.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="4200" windowWidth="29900" windowHeight="17900" tabRatio="500"/>
+    <workbookView xWindow="35520" yWindow="4200" windowWidth="29895" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作簿2.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="heroaction" localSheetId="0">工作簿2.csv!$A$1:$AQ$46</definedName>
+    <definedName name="heroaction" localSheetId="0">工作簿2.csv!$A$1:$AR$45</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>bindex0</t>
   </si>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>soldier3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soldier6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,14 +258,18 @@
   </si>
   <si>
     <t>soldier14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -642,48 +642,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -697,124 +698,127 @@
         <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
       <c r="U1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:44">
       <c r="A2">
         <v>10000001</v>
       </c>
@@ -825,124 +829,127 @@
         <v>44</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
       <c r="K2">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
         <v>14</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>500</v>
       </c>
-      <c r="N2">
-        <v>15</v>
-      </c>
       <c r="O2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="T2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="U2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="W2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="X2">
         <v>15</v>
       </c>
       <c r="Y2">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="Z2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AA2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB2">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AC2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AD2">
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AG2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AI2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AJ2">
+        <v>7</v>
+      </c>
+      <c r="AK2">
         <v>9</v>
       </c>
-      <c r="AK2">
-        <v>100</v>
-      </c>
       <c r="AL2">
+        <v>100</v>
+      </c>
+      <c r="AM2">
         <v>10</v>
       </c>
-      <c r="AM2">
-        <v>12</v>
-      </c>
       <c r="AN2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AO2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AQ2">
+        <v>12</v>
+      </c>
+      <c r="AR2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44">
       <c r="A3">
         <v>10000002</v>
       </c>
@@ -959,118 +966,121 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
       <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
         <v>14</v>
       </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
       <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
         <v>500</v>
       </c>
-      <c r="N3">
-        <v>16</v>
-      </c>
       <c r="O3">
+        <v>16</v>
+      </c>
+      <c r="P3">
         <v>17</v>
       </c>
-      <c r="P3">
-        <v>100</v>
-      </c>
       <c r="Q3">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="U3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V3">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="W3">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="X3">
         <v>16</v>
       </c>
       <c r="Y3">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Z3">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AA3">
+        <v>16</v>
+      </c>
+      <c r="AB3">
         <v>17</v>
       </c>
-      <c r="AB3">
-        <v>100</v>
-      </c>
       <c r="AC3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AD3">
         <v>10</v>
       </c>
       <c r="AE3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF3">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AG3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH3">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="AI3">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AJ3">
+        <v>7</v>
+      </c>
+      <c r="AK3">
         <v>8</v>
       </c>
-      <c r="AK3">
-        <v>100</v>
-      </c>
       <c r="AL3">
+        <v>100</v>
+      </c>
+      <c r="AM3">
         <v>9</v>
       </c>
-      <c r="AM3">
-        <v>13</v>
-      </c>
       <c r="AN3">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="AO3">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AQ3">
+        <v>13</v>
+      </c>
+      <c r="AR3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:44">
       <c r="A4">
         <v>10000003</v>
       </c>
@@ -1087,118 +1097,121 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
       <c r="K4">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
         <v>14</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>500</v>
       </c>
-      <c r="N4">
-        <v>15</v>
-      </c>
       <c r="O4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="U4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V4">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="W4">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="X4">
         <v>15</v>
       </c>
       <c r="Y4">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="Z4">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AA4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB4">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AC4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AD4">
         <v>10</v>
       </c>
       <c r="AE4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF4">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AG4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH4">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AI4">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AJ4">
+        <v>7</v>
+      </c>
+      <c r="AK4">
         <v>9</v>
       </c>
-      <c r="AK4">
-        <v>100</v>
-      </c>
       <c r="AL4">
+        <v>100</v>
+      </c>
+      <c r="AM4">
         <v>10</v>
       </c>
-      <c r="AM4">
-        <v>12</v>
-      </c>
       <c r="AN4">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AO4">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AQ4">
+        <v>12</v>
+      </c>
+      <c r="AR4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:44">
       <c r="A5">
         <v>10000004</v>
       </c>
@@ -1209,124 +1222,127 @@
         <v>47</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
       <c r="K5">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
         <v>14</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>500</v>
       </c>
-      <c r="N5">
-        <v>15</v>
-      </c>
       <c r="O5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="T5">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="U5">
+        <v>13</v>
+      </c>
+      <c r="V5">
         <v>14</v>
       </c>
-      <c r="V5">
-        <v>100</v>
-      </c>
       <c r="W5">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="X5">
         <v>15</v>
       </c>
       <c r="Y5">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="Z5">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AA5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB5">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AC5">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="AD5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE5">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="AF5">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AG5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH5">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AI5">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AJ5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AK5">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="AL5">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AM5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AN5">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AO5">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AP5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AQ5">
+        <v>12</v>
+      </c>
+      <c r="AR5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:44">
       <c r="A6">
         <v>10000005</v>
       </c>
@@ -1343,118 +1359,121 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
       <c r="K6">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
         <v>14</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>500</v>
       </c>
-      <c r="N6">
-        <v>15</v>
-      </c>
       <c r="O6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P6">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="T6">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="U6">
+        <v>13</v>
+      </c>
+      <c r="V6">
         <v>14</v>
       </c>
-      <c r="V6">
-        <v>100</v>
-      </c>
       <c r="W6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="X6">
         <v>15</v>
       </c>
       <c r="Y6">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="Z6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AA6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB6">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AC6">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AD6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF6">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AG6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH6">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AI6">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AJ6">
+        <v>7</v>
+      </c>
+      <c r="AK6">
         <v>9</v>
       </c>
-      <c r="AK6">
-        <v>100</v>
-      </c>
       <c r="AL6">
+        <v>100</v>
+      </c>
+      <c r="AM6">
         <v>10</v>
       </c>
-      <c r="AM6">
-        <v>12</v>
-      </c>
       <c r="AN6">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AO6">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AQ6">
+        <v>12</v>
+      </c>
+      <c r="AR6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:44">
       <c r="A7">
         <v>10000006</v>
       </c>
@@ -1465,124 +1484,127 @@
         <v>49</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
       <c r="K7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="M7">
         <v>14</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>500</v>
       </c>
-      <c r="N7">
-        <v>15</v>
-      </c>
       <c r="O7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="T7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="U7">
+        <v>13</v>
+      </c>
+      <c r="V7">
         <v>14</v>
       </c>
-      <c r="V7">
-        <v>100</v>
-      </c>
       <c r="W7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="X7">
         <v>15</v>
       </c>
       <c r="Y7">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="Z7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AA7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB7">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AC7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AD7">
         <v>10</v>
       </c>
       <c r="AE7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AG7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH7">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AI7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AJ7">
+        <v>7</v>
+      </c>
+      <c r="AK7">
         <v>9</v>
       </c>
-      <c r="AK7">
-        <v>100</v>
-      </c>
       <c r="AL7">
+        <v>100</v>
+      </c>
+      <c r="AM7">
         <v>10</v>
       </c>
-      <c r="AM7">
-        <v>12</v>
-      </c>
       <c r="AN7">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AO7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AQ7">
+        <v>12</v>
+      </c>
+      <c r="AR7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44">
       <c r="A8">
         <v>10000007</v>
       </c>
@@ -1599,118 +1621,121 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
       <c r="K8">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>14</v>
       </c>
       <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
         <v>500</v>
       </c>
-      <c r="N8">
-        <v>15</v>
-      </c>
       <c r="O8">
         <v>16</v>
       </c>
       <c r="P8">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S8">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="T8">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="U8">
         <v>14</v>
       </c>
       <c r="V8">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="W8">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="X8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y8">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Z8">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AA8">
         <v>16</v>
       </c>
       <c r="AB8">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AC8">
+        <v>100</v>
+      </c>
+      <c r="AD8">
+        <v>13</v>
+      </c>
+      <c r="AE8">
+        <v>13</v>
+      </c>
+      <c r="AF8">
+        <v>100</v>
+      </c>
+      <c r="AG8">
+        <v>7</v>
+      </c>
+      <c r="AH8">
+        <v>13</v>
+      </c>
+      <c r="AI8">
+        <v>100</v>
+      </c>
+      <c r="AJ8">
+        <v>7</v>
+      </c>
+      <c r="AK8">
+        <v>9</v>
+      </c>
+      <c r="AL8">
+        <v>100</v>
+      </c>
+      <c r="AM8">
         <v>10</v>
       </c>
-      <c r="AD8">
-        <v>10</v>
-      </c>
-      <c r="AE8">
-        <v>100</v>
-      </c>
-      <c r="AF8">
-        <v>7</v>
-      </c>
-      <c r="AG8">
-        <v>12</v>
-      </c>
-      <c r="AH8">
-        <v>100</v>
-      </c>
-      <c r="AI8">
-        <v>7</v>
-      </c>
-      <c r="AJ8">
-        <v>9</v>
-      </c>
-      <c r="AK8">
-        <v>100</v>
-      </c>
-      <c r="AL8">
-        <v>10</v>
-      </c>
-      <c r="AM8">
-        <v>12</v>
-      </c>
       <c r="AN8">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="AO8">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AQ8">
+        <v>13</v>
+      </c>
+      <c r="AR8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:44">
       <c r="A9">
         <v>10000008</v>
       </c>
@@ -1727,118 +1752,121 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6</v>
       </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
       <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>13</v>
+      </c>
+      <c r="M9">
         <v>14</v>
       </c>
-      <c r="L9">
-        <v>15</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
         <v>500</v>
       </c>
-      <c r="N9">
-        <v>16</v>
-      </c>
       <c r="O9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <v>13</v>
+      </c>
+      <c r="V9">
         <v>14</v>
       </c>
-      <c r="U9">
-        <v>15</v>
-      </c>
-      <c r="V9">
-        <v>100</v>
-      </c>
       <c r="W9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="X9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y9">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="Z9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AA9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AC9">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AD9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF9">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AG9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AI9">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AJ9">
+        <v>7</v>
+      </c>
+      <c r="AK9">
         <v>9</v>
       </c>
-      <c r="AK9">
-        <v>100</v>
-      </c>
       <c r="AL9">
+        <v>100</v>
+      </c>
+      <c r="AM9">
         <v>10</v>
       </c>
-      <c r="AM9">
-        <v>13</v>
-      </c>
       <c r="AN9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AO9">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AQ9">
+        <v>12</v>
+      </c>
+      <c r="AR9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44">
       <c r="A10">
         <v>10000009</v>
       </c>
@@ -1855,118 +1883,121 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="J10">
-        <v>100</v>
-      </c>
       <c r="K10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <v>14</v>
       </c>
       <c r="M10">
+        <v>15</v>
+      </c>
+      <c r="N10">
         <v>500</v>
       </c>
-      <c r="N10">
-        <v>15</v>
-      </c>
       <c r="O10">
         <v>16</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="T10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="U10">
         <v>14</v>
       </c>
       <c r="V10">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="W10">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="X10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y10">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Z10">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AA10">
         <v>16</v>
       </c>
       <c r="AB10">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="AC10">
+        <v>100</v>
+      </c>
+      <c r="AD10">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>13</v>
+      </c>
+      <c r="AF10">
+        <v>100</v>
+      </c>
+      <c r="AG10">
+        <v>7</v>
+      </c>
+      <c r="AH10">
+        <v>13</v>
+      </c>
+      <c r="AI10">
+        <v>100</v>
+      </c>
+      <c r="AJ10">
+        <v>7</v>
+      </c>
+      <c r="AK10">
+        <v>9</v>
+      </c>
+      <c r="AL10">
+        <v>100</v>
+      </c>
+      <c r="AM10">
         <v>10</v>
       </c>
-      <c r="AD10">
-        <v>10</v>
-      </c>
-      <c r="AE10">
-        <v>100</v>
-      </c>
-      <c r="AF10">
-        <v>7</v>
-      </c>
-      <c r="AG10">
-        <v>12</v>
-      </c>
-      <c r="AH10">
-        <v>100</v>
-      </c>
-      <c r="AI10">
-        <v>7</v>
-      </c>
-      <c r="AJ10">
-        <v>9</v>
-      </c>
-      <c r="AK10">
-        <v>100</v>
-      </c>
-      <c r="AL10">
-        <v>10</v>
-      </c>
-      <c r="AM10">
-        <v>12</v>
-      </c>
       <c r="AN10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="AO10">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AQ10">
+        <v>13</v>
+      </c>
+      <c r="AR10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44">
       <c r="A11">
         <v>10000010</v>
       </c>
@@ -1983,118 +2014,121 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
       <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>500</v>
+      </c>
+      <c r="O11">
         <v>14</v>
       </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
-      <c r="M11">
-        <v>500</v>
-      </c>
-      <c r="N11">
-        <v>16</v>
-      </c>
-      <c r="O11">
-        <v>17</v>
-      </c>
       <c r="P11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S11">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <v>12</v>
+      </c>
+      <c r="V11">
+        <v>13</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11">
         <v>14</v>
       </c>
-      <c r="U11">
-        <v>15</v>
-      </c>
-      <c r="V11">
-        <v>100</v>
-      </c>
-      <c r="W11">
-        <v>16</v>
-      </c>
-      <c r="X11">
-        <v>16</v>
-      </c>
       <c r="Y11">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="Z11">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AA11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AC11">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AD11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE11">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AF11">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AG11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH11">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="AI11">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AJ11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK11">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="AL11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AM11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AN11">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="AO11">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AQ11">
+        <v>11</v>
+      </c>
+      <c r="AR11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44">
       <c r="A12">
         <v>10000011</v>
       </c>
@@ -2111,118 +2145,121 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>6</v>
       </c>
-      <c r="J12">
-        <v>100</v>
-      </c>
       <c r="K12">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
         <v>500</v>
       </c>
-      <c r="N12">
+      <c r="O12">
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <v>17</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+      <c r="U12">
         <v>14</v>
       </c>
-      <c r="O12">
-        <v>15</v>
-      </c>
-      <c r="P12">
-        <v>100</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-      <c r="R12">
-        <v>11</v>
-      </c>
-      <c r="S12">
-        <v>100</v>
-      </c>
-      <c r="T12">
-        <v>12</v>
-      </c>
-      <c r="U12">
-        <v>13</v>
-      </c>
       <c r="V12">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>16</v>
+      </c>
+      <c r="Y12">
+        <v>16</v>
+      </c>
+      <c r="Z12">
+        <v>100</v>
+      </c>
+      <c r="AA12">
+        <v>16</v>
+      </c>
+      <c r="AB12">
+        <v>17</v>
+      </c>
+      <c r="AC12">
+        <v>100</v>
+      </c>
+      <c r="AD12">
+        <v>13</v>
+      </c>
+      <c r="AE12">
+        <v>13</v>
+      </c>
+      <c r="AF12">
+        <v>100</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+      <c r="AH12">
+        <v>13</v>
+      </c>
+      <c r="AI12">
+        <v>100</v>
+      </c>
+      <c r="AJ12">
         <v>14</v>
       </c>
-      <c r="X12">
+      <c r="AK12">
+        <v>15</v>
+      </c>
+      <c r="AL12">
+        <v>100</v>
+      </c>
+      <c r="AM12">
         <v>14</v>
       </c>
-      <c r="Y12">
-        <v>100</v>
-      </c>
-      <c r="Z12">
-        <v>14</v>
-      </c>
-      <c r="AA12">
-        <v>15</v>
-      </c>
-      <c r="AB12">
-        <v>100</v>
-      </c>
-      <c r="AC12">
-        <v>12</v>
-      </c>
-      <c r="AD12">
-        <v>12</v>
-      </c>
-      <c r="AE12">
-        <v>100</v>
-      </c>
-      <c r="AF12">
-        <v>7</v>
-      </c>
-      <c r="AG12">
-        <v>11</v>
-      </c>
-      <c r="AH12">
-        <v>100</v>
-      </c>
-      <c r="AI12">
-        <v>7</v>
-      </c>
-      <c r="AJ12">
-        <v>7</v>
-      </c>
-      <c r="AK12">
-        <v>100</v>
-      </c>
-      <c r="AL12">
-        <v>8</v>
-      </c>
-      <c r="AM12">
-        <v>11</v>
-      </c>
       <c r="AN12">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="AO12">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AQ12">
+        <v>13</v>
+      </c>
+      <c r="AR12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44">
       <c r="A13">
         <v>10000012</v>
       </c>
@@ -2239,242 +2276,117 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6</v>
       </c>
-      <c r="J13">
-        <v>100</v>
-      </c>
       <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
         <v>14</v>
       </c>
-      <c r="L13">
-        <v>15</v>
-      </c>
       <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
         <v>500</v>
       </c>
-      <c r="N13">
-        <v>16</v>
-      </c>
       <c r="O13">
+        <v>16</v>
+      </c>
+      <c r="P13">
         <v>17</v>
       </c>
-      <c r="P13">
-        <v>100</v>
-      </c>
       <c r="Q13">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S13">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="T13">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="U13">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="V13">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="W13">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="X13">
         <v>16</v>
       </c>
       <c r="Y13">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="Z13">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AA13">
+        <v>16</v>
+      </c>
+      <c r="AB13">
         <v>17</v>
       </c>
-      <c r="AB13">
-        <v>100</v>
-      </c>
       <c r="AC13">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AD13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF13">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AG13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH13">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="AI13">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="AJ13">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AK13">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="AL13">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="AM13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AN13">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="AO13">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AP13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AQ13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
-      <c r="A14">
-        <v>10000013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>14</v>
-      </c>
-      <c r="L14">
-        <v>15</v>
-      </c>
-      <c r="M14">
-        <v>500</v>
-      </c>
-      <c r="N14">
-        <v>16</v>
-      </c>
-      <c r="O14">
-        <v>17</v>
-      </c>
-      <c r="P14">
-        <v>100</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
-      <c r="R14">
-        <v>13</v>
-      </c>
-      <c r="S14">
-        <v>100</v>
-      </c>
-      <c r="T14">
-        <v>7</v>
-      </c>
-      <c r="U14">
-        <v>13</v>
-      </c>
-      <c r="V14">
-        <v>100</v>
-      </c>
-      <c r="W14">
-        <v>16</v>
-      </c>
-      <c r="X14">
-        <v>16</v>
-      </c>
-      <c r="Y14">
-        <v>100</v>
-      </c>
-      <c r="Z14">
-        <v>16</v>
-      </c>
-      <c r="AA14">
-        <v>17</v>
-      </c>
-      <c r="AB14">
-        <v>100</v>
-      </c>
-      <c r="AC14">
-        <v>10</v>
-      </c>
-      <c r="AD14">
-        <v>10</v>
-      </c>
-      <c r="AE14">
-        <v>100</v>
-      </c>
-      <c r="AF14">
-        <v>7</v>
-      </c>
-      <c r="AG14">
-        <v>13</v>
-      </c>
-      <c r="AH14">
-        <v>100</v>
-      </c>
-      <c r="AI14">
-        <v>7</v>
-      </c>
-      <c r="AJ14">
-        <v>8</v>
-      </c>
-      <c r="AK14">
-        <v>100</v>
-      </c>
-      <c r="AL14">
-        <v>9</v>
-      </c>
-      <c r="AM14">
-        <v>13</v>
-      </c>
-      <c r="AN14">
-        <v>100</v>
-      </c>
-      <c r="AO14">
-        <v>7</v>
-      </c>
-      <c r="AP14">
-        <v>13</v>
-      </c>
-      <c r="AQ14">
+        <v>13</v>
+      </c>
+      <c r="AR13">
         <v>100</v>
       </c>
     </row>

--- a/res/static/actioninfo.xlsx
+++ b/res/static/actioninfo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="4200" windowWidth="29895" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="39360" yWindow="5160" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作簿2.csv" sheetId="1" r:id="rId1"/>
@@ -268,8 +268,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +280,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -303,14 +321,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -642,14 +664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
@@ -832,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -963,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -1094,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -1225,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -1356,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -1487,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -1618,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -1749,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1880,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -2011,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -2142,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -2273,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -2393,6 +2415,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
